--- a/medicine/Psychotrope/École_d'ingénieurs_de_Changins/École_d'ingénieurs_de_Changins.xlsx
+++ b/medicine/Psychotrope/École_d'ingénieurs_de_Changins/École_d'ingénieurs_de_Changins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cole_d%27ing%C3%A9nieurs_de_Changins</t>
+          <t>École_d'ingénieurs_de_Changins</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'École d'ingénieurs de Changins (EIC) est une fondation inter-cantonale de droit privé[1] qui propose des formations tertiaires en œnologie (HES), viticulture (formation continue) et arboriculture (ES). L'école est la seule institution de Suisse à proposer une formation en œnologie[2]. Elle se situe sur le même site que l'agroscope Changins-Wädenswil qui dépend de l'office fédéral de l'agriculture.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'École d'ingénieurs de Changins (EIC) est une fondation inter-cantonale de droit privé qui propose des formations tertiaires en œnologie (HES), viticulture (formation continue) et arboriculture (ES). L'école est la seule institution de Suisse à proposer une formation en œnologie. Elle se situe sur le même site que l'agroscope Changins-Wädenswil qui dépend de l'office fédéral de l'agriculture.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cole_d%27ing%C3%A9nieurs_de_Changins</t>
+          <t>École_d'ingénieurs_de_Changins</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fondée en 1948 sous l'impulsion des cantons francophones, de Berne et du Tessin, l'école répond à un besoin de formation pour les métiers de la viticulture, l’œnologie et l'arboriculture. Implantée à ses débuts à Montagibert (Lausanne), l'école rejoint en 1975 le site de la Station fédérale de recherches agronomiques (Agroscope Changins-Wädenswil) sur le site de Changins à Nyon. Depuis, l'agroscope et l'école ont toujours gardé un lien étroit.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89cole_d%27ing%C3%A9nieurs_de_Changins</t>
+          <t>École_d'ingénieurs_de_Changins</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Élèves célèbres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sophie Dugerdil</t>
         </is>
